--- a/plasticWaste.xlsx
+++ b/plasticWaste.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adai/Desktop/HackGT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{5F926A1B-9DC7-1F4B-BEE4-C97632903227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEECB6B8-5792-F445-BCBD-CBC941105118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14280" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="plasticWaste" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="202">
   <si>
     <t>Country</t>
   </si>
@@ -620,12 +620,18 @@
   </si>
   <si>
     <t>MismanagedPlasticWaste2025</t>
+  </si>
+  <si>
+    <t>South Korea</t>
+  </si>
+  <si>
+    <t>North Korea</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1470,12 +1476,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N184"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N186"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="64" zoomScaleNormal="125" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N1" sqref="N1"/>
+    <sheetView tabSelected="1" zoomScale="132" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5496,993 +5501,941 @@
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B92" s="1">
-        <v>29.31</v>
-      </c>
-      <c r="C92" s="1">
-        <v>47.48</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E92" s="1">
-        <v>2293604</v>
-      </c>
-      <c r="F92" s="1">
-        <v>5.72</v>
-      </c>
-      <c r="G92" s="1">
-        <v>12</v>
-      </c>
-      <c r="H92" s="1">
-        <v>0</v>
-      </c>
-      <c r="I92" s="1">
-        <v>2</v>
-      </c>
-      <c r="J92" s="3">
-        <v>13119414.879999999</v>
-      </c>
-      <c r="K92" s="1">
-        <v>1567770</v>
-      </c>
-      <c r="L92" s="1">
-        <v>31355</v>
-      </c>
-      <c r="M92" s="1">
-        <v>11489</v>
-      </c>
-      <c r="N92" s="1">
-        <v>13479</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1"/>
+      <c r="G92" s="1"/>
+      <c r="H92" s="1"/>
+      <c r="I92" s="1"/>
+      <c r="J92" s="1"/>
+      <c r="K92" s="1"/>
+      <c r="L92" s="1"/>
+      <c r="M92" s="1"/>
+      <c r="N92" s="1"/>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B93" s="1">
-        <v>56.88</v>
-      </c>
-      <c r="C93" s="1">
-        <v>24.6</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E93" s="1">
-        <v>1432078</v>
-      </c>
-      <c r="F93" s="1">
-        <v>1.03</v>
-      </c>
-      <c r="G93" s="1">
-        <v>12</v>
-      </c>
-      <c r="H93" s="1">
-        <v>14</v>
-      </c>
-      <c r="I93" s="1">
-        <v>2</v>
-      </c>
-      <c r="J93" s="1">
-        <v>1475040</v>
-      </c>
-      <c r="K93" s="1">
-        <v>176267</v>
-      </c>
-      <c r="L93" s="1">
-        <v>3525</v>
-      </c>
-      <c r="M93" s="1">
-        <v>10284</v>
-      </c>
-      <c r="N93" s="1">
-        <v>16654</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1"/>
+      <c r="G93" s="1"/>
+      <c r="H93" s="1"/>
+      <c r="I93" s="1"/>
+      <c r="J93" s="1"/>
+      <c r="K93" s="1"/>
+      <c r="L93" s="1"/>
+      <c r="M93" s="1"/>
+      <c r="N93" s="1"/>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B94" s="1">
-        <v>33.85</v>
+        <v>29.31</v>
       </c>
       <c r="C94" s="1">
-        <v>35.86</v>
+        <v>47.48</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E94" s="1">
-        <v>3890871</v>
+        <v>2293604</v>
       </c>
       <c r="F94" s="1">
-        <v>1.18</v>
+        <v>5.72</v>
       </c>
       <c r="G94" s="1">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H94" s="1">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="I94" s="1">
         <v>2</v>
       </c>
-      <c r="J94" s="1">
-        <v>4591228</v>
+      <c r="J94" s="3">
+        <v>13119414.879999999</v>
       </c>
       <c r="K94" s="1">
-        <v>365003</v>
+        <v>1567770</v>
       </c>
       <c r="L94" s="1">
-        <v>7300</v>
+        <v>31355</v>
       </c>
       <c r="M94" s="1">
-        <v>47815</v>
+        <v>11489</v>
       </c>
       <c r="N94" s="1">
-        <v>101852</v>
+        <v>13479</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B95" s="1">
-        <v>6.43</v>
+        <v>56.88</v>
       </c>
       <c r="C95" s="1">
-        <v>-9.43</v>
+        <v>24.6</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="E95" s="1">
-        <v>2148271</v>
+        <v>1432078</v>
       </c>
       <c r="F95" s="1">
-        <v>0.6</v>
+        <v>1.03</v>
       </c>
       <c r="G95" s="1">
+        <v>12</v>
+      </c>
+      <c r="H95" s="1">
         <v>14</v>
       </c>
-      <c r="H95" s="1">
-        <v>84</v>
-      </c>
       <c r="I95" s="1">
         <v>2</v>
       </c>
       <c r="J95" s="1">
-        <v>1288963</v>
+        <v>1475040</v>
       </c>
       <c r="K95" s="1">
-        <v>179810</v>
+        <v>176267</v>
       </c>
       <c r="L95" s="1">
-        <v>3596</v>
+        <v>3525</v>
       </c>
       <c r="M95" s="1">
-        <v>56728</v>
+        <v>10284</v>
       </c>
       <c r="N95" s="1">
-        <v>142787</v>
+        <v>16654</v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B96" s="1">
-        <v>26.34</v>
+        <v>33.85</v>
       </c>
       <c r="C96" s="1">
-        <v>17.23</v>
+        <v>35.86</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E96" s="1">
-        <v>4050128</v>
+        <v>3890871</v>
       </c>
       <c r="F96" s="1">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="G96" s="1">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H96" s="1">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="I96" s="1">
         <v>2</v>
       </c>
       <c r="J96" s="1">
-        <v>4860154</v>
+        <v>4591228</v>
       </c>
       <c r="K96" s="1">
-        <v>580788</v>
+        <v>365003</v>
       </c>
       <c r="L96" s="1">
-        <v>11616</v>
+        <v>7300</v>
       </c>
       <c r="M96" s="1">
-        <v>52779</v>
+        <v>47815</v>
       </c>
       <c r="N96" s="1">
-        <v>102577</v>
+        <v>101852</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B97" s="1">
-        <v>47.17</v>
+        <v>6.43</v>
       </c>
       <c r="C97" s="1">
-        <v>9.56</v>
+        <v>-9.43</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="E97" s="1">
-        <v>443894</v>
+        <v>2148271</v>
       </c>
       <c r="F97" s="1">
-        <v>1.1000000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="G97" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H97" s="1">
-        <v>14</v>
+        <v>84</v>
       </c>
       <c r="I97" s="1">
         <v>2</v>
       </c>
       <c r="J97" s="1">
-        <v>488283</v>
+        <v>1288963</v>
       </c>
       <c r="K97" s="1">
-        <v>58350</v>
+        <v>179810</v>
       </c>
       <c r="L97" s="1">
-        <v>1167</v>
+        <v>3596</v>
       </c>
       <c r="M97" s="1">
-        <v>3479</v>
+        <v>56728</v>
       </c>
       <c r="N97" s="1">
-        <v>5478</v>
+        <v>142787</v>
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B98" s="1">
-        <v>22.2</v>
+        <v>26.34</v>
       </c>
       <c r="C98" s="1">
-        <v>113.54</v>
+        <v>17.23</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E98" s="1">
-        <v>257911</v>
+        <v>4050128</v>
       </c>
       <c r="F98" s="1">
-        <v>1.47</v>
+        <v>1.2</v>
       </c>
       <c r="G98" s="1">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="H98" s="1">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="I98" s="1">
         <v>2</v>
       </c>
       <c r="J98" s="1">
-        <v>379129</v>
+        <v>4860154</v>
       </c>
       <c r="K98" s="1">
-        <v>94593</v>
+        <v>580788</v>
       </c>
       <c r="L98" s="1">
-        <v>1892</v>
+        <v>11616</v>
       </c>
       <c r="M98" s="1">
-        <v>698</v>
+        <v>52779</v>
       </c>
       <c r="N98" s="1">
-        <v>1146</v>
+        <v>102577</v>
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B99" s="1">
-        <v>-18.77</v>
+        <v>47.17</v>
       </c>
       <c r="C99" s="1">
-        <v>46.87</v>
+        <v>9.56</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="E99" s="1">
-        <v>7062413</v>
+        <v>443894</v>
       </c>
       <c r="F99" s="1">
-        <v>0.8</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G99" s="1">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="H99" s="1">
-        <v>84</v>
+        <v>14</v>
       </c>
       <c r="I99" s="1">
         <v>2</v>
       </c>
       <c r="J99" s="1">
-        <v>5649930</v>
+        <v>488283</v>
       </c>
       <c r="K99" s="1">
-        <v>110174</v>
+        <v>58350</v>
       </c>
       <c r="L99" s="1">
-        <v>2203</v>
+        <v>1167</v>
       </c>
       <c r="M99" s="1">
-        <v>34522</v>
+        <v>3479</v>
       </c>
       <c r="N99" s="1">
-        <v>177625</v>
+        <v>5478</v>
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B100" s="1">
-        <v>4.21</v>
+        <v>22.2</v>
       </c>
       <c r="C100" s="1">
-        <v>101.98</v>
+        <v>113.54</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E100" s="1">
+        <v>257911</v>
+      </c>
+      <c r="F100" s="1">
+        <v>1.47</v>
+      </c>
+      <c r="G100" s="1">
+        <v>25</v>
+      </c>
+      <c r="H100" s="1">
         <v>0</v>
       </c>
-      <c r="F100" s="1">
-        <v>1.52</v>
-      </c>
-      <c r="G100" s="1">
-        <v>13</v>
-      </c>
-      <c r="H100" s="1">
-        <v>55</v>
-      </c>
       <c r="I100" s="1">
         <v>2</v>
       </c>
-      <c r="J100" s="3">
-        <v>34793183.039999999</v>
+      <c r="J100" s="1">
+        <v>379129</v>
       </c>
       <c r="K100" s="1">
-        <v>4505717</v>
+        <v>94593</v>
       </c>
       <c r="L100" s="1">
-        <v>90114</v>
+        <v>1892</v>
       </c>
       <c r="M100" s="1">
-        <v>936818</v>
+        <v>698</v>
       </c>
       <c r="N100" s="1">
-        <v>1765977</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B101" s="1">
-        <v>3.2</v>
+        <v>-18.77</v>
       </c>
       <c r="C101" s="1">
-        <v>73.22</v>
+        <v>46.87</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E101" s="1">
-        <v>392567</v>
+        <v>7062413</v>
       </c>
       <c r="F101" s="1">
-        <v>2.48</v>
+        <v>0.8</v>
       </c>
       <c r="G101" s="1">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="H101" s="1">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="I101" s="1">
         <v>2</v>
       </c>
       <c r="J101" s="1">
-        <v>973566</v>
+        <v>5649930</v>
       </c>
       <c r="K101" s="1">
-        <v>126077</v>
+        <v>110174</v>
       </c>
       <c r="L101" s="1">
-        <v>2522</v>
+        <v>2203</v>
       </c>
       <c r="M101" s="1">
-        <v>31469</v>
+        <v>34522</v>
       </c>
       <c r="N101" s="1">
-        <v>40143</v>
+        <v>177625</v>
       </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B102" s="1">
-        <v>17.57</v>
+        <v>4.21</v>
       </c>
       <c r="C102" s="1">
-        <v>-4</v>
+        <v>101.98</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E102" s="1">
-        <v>404707</v>
+        <v>0</v>
       </c>
       <c r="F102" s="1">
-        <v>1.78</v>
+        <v>1.52</v>
       </c>
       <c r="G102" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H102" s="1">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="I102" s="1">
         <v>2</v>
       </c>
-      <c r="J102" s="1">
-        <v>720378</v>
+      <c r="J102" s="3">
+        <v>34793183.039999999</v>
       </c>
       <c r="K102" s="1">
-        <v>86085</v>
+        <v>4505717</v>
       </c>
       <c r="L102" s="1">
-        <v>1722</v>
+        <v>90114</v>
       </c>
       <c r="M102" s="1">
-        <v>2620</v>
+        <v>936818</v>
       </c>
       <c r="N102" s="1">
-        <v>3757</v>
+        <v>1765977</v>
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B103" s="1">
-        <v>7.13</v>
+        <v>3.2</v>
       </c>
       <c r="C103" s="1">
-        <v>171.18</v>
+        <v>73.22</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E103" s="1">
-        <v>58086</v>
+        <v>392567</v>
       </c>
       <c r="F103" s="1">
-        <v>1.2</v>
+        <v>2.48</v>
       </c>
       <c r="G103" s="1">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H103" s="1">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="I103" s="1">
         <v>2</v>
       </c>
       <c r="J103" s="1">
-        <v>69703</v>
+        <v>973566</v>
       </c>
       <c r="K103" s="1">
-        <v>11118</v>
+        <v>126077</v>
       </c>
       <c r="L103" s="1">
-        <v>222</v>
+        <v>2522</v>
       </c>
       <c r="M103" s="1">
-        <v>3187</v>
+        <v>31469</v>
       </c>
       <c r="N103" s="1">
-        <v>5717</v>
+        <v>40143</v>
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B104" s="1">
-        <v>14.64</v>
+        <v>17.57</v>
       </c>
       <c r="C104" s="1">
-        <v>-61.02</v>
+        <v>-4</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E104" s="1">
-        <v>402257</v>
+        <v>404707</v>
       </c>
       <c r="F104" s="1">
-        <v>2.1</v>
+        <v>1.78</v>
       </c>
       <c r="G104" s="1">
         <v>12</v>
       </c>
       <c r="H104" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I104" s="1">
         <v>2</v>
       </c>
       <c r="J104" s="1">
-        <v>844740</v>
+        <v>720378</v>
       </c>
       <c r="K104" s="1">
-        <v>100946</v>
+        <v>86085</v>
       </c>
       <c r="L104" s="1">
-        <v>2019</v>
+        <v>1722</v>
       </c>
       <c r="M104" s="1">
-        <v>749</v>
+        <v>2620</v>
       </c>
       <c r="N104" s="1">
-        <v>955</v>
+        <v>3757</v>
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B105" s="1">
-        <v>21.01</v>
+        <v>7.13</v>
       </c>
       <c r="C105" s="1">
-        <v>-10.94</v>
+        <v>171.18</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="E105" s="1">
-        <v>1005481</v>
+        <v>58086</v>
       </c>
       <c r="F105" s="1">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="G105" s="1">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="H105" s="1">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="I105" s="1">
         <v>2</v>
       </c>
       <c r="J105" s="1">
-        <v>502741</v>
+        <v>69703</v>
       </c>
       <c r="K105" s="1">
-        <v>44995</v>
+        <v>11118</v>
       </c>
       <c r="L105" s="1">
-        <v>900</v>
+        <v>222</v>
       </c>
       <c r="M105" s="1">
-        <v>13854</v>
+        <v>3187</v>
       </c>
       <c r="N105" s="1">
-        <v>39754</v>
+        <v>5717</v>
       </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B106" s="1">
-        <v>-20.350000000000001</v>
+        <v>14.64</v>
       </c>
       <c r="C106" s="1">
-        <v>57.55</v>
+        <v>-61.02</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E106" s="1">
-        <v>1255952</v>
+        <v>402257</v>
       </c>
       <c r="F106" s="1">
-        <v>2.2999999999999998</v>
+        <v>2.1</v>
       </c>
       <c r="G106" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H106" s="1">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="I106" s="1">
         <v>2</v>
       </c>
       <c r="J106" s="1">
-        <v>2888690</v>
+        <v>844740</v>
       </c>
       <c r="K106" s="1">
-        <v>287425</v>
+        <v>100946</v>
       </c>
       <c r="L106" s="1">
-        <v>5748</v>
+        <v>2019</v>
       </c>
       <c r="M106" s="1">
-        <v>56051</v>
+        <v>749</v>
       </c>
       <c r="N106" s="1">
-        <v>73172</v>
+        <v>955</v>
       </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B107" s="1">
-        <v>23.63</v>
+        <v>21.01</v>
       </c>
       <c r="C107" s="1">
-        <v>-102.55</v>
+        <v>-10.94</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="E107" s="1">
-        <v>0</v>
+        <v>1005481</v>
       </c>
       <c r="F107" s="1">
-        <v>1.24</v>
+        <v>0.5</v>
       </c>
       <c r="G107" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H107" s="1">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="I107" s="1">
         <v>2</v>
       </c>
-      <c r="J107" s="3">
-        <v>28083236.039999999</v>
+      <c r="J107" s="1">
+        <v>502741</v>
       </c>
       <c r="K107" s="1">
-        <v>1951785</v>
+        <v>44995</v>
       </c>
       <c r="L107" s="1">
-        <v>39036</v>
+        <v>900</v>
       </c>
       <c r="M107" s="1">
-        <v>101343</v>
+        <v>13854</v>
       </c>
       <c r="N107" s="1">
-        <v>233393</v>
+        <v>39754</v>
       </c>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B108" s="1">
-        <v>7.43</v>
+        <v>-20.350000000000001</v>
       </c>
       <c r="C108" s="1">
-        <v>150.55000000000001</v>
+        <v>57.55</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E108" s="1">
-        <v>154895</v>
+        <v>1255952</v>
       </c>
       <c r="F108" s="1">
-        <v>0.79</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="G108" s="1">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H108" s="1">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="I108" s="1">
         <v>2</v>
       </c>
       <c r="J108" s="1">
-        <v>122367</v>
+        <v>2888690</v>
       </c>
       <c r="K108" s="1">
-        <v>15847</v>
+        <v>287425</v>
       </c>
       <c r="L108" s="1">
-        <v>317</v>
+        <v>5748</v>
       </c>
       <c r="M108" s="1">
-        <v>4794</v>
+        <v>56051</v>
       </c>
       <c r="N108" s="1">
-        <v>10699</v>
+        <v>73172</v>
       </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B109" s="1">
-        <v>43.75</v>
+        <v>23.63</v>
       </c>
       <c r="C109" s="1">
-        <v>7.41</v>
+        <v>-102.55</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E109" s="1">
-        <v>34050</v>
+        <v>0</v>
       </c>
       <c r="F109" s="1">
-        <v>2.1</v>
+        <v>1.24</v>
       </c>
       <c r="G109" s="1">
+        <v>7</v>
+      </c>
+      <c r="H109" s="1">
         <v>12</v>
       </c>
-      <c r="H109" s="1">
-        <v>0</v>
-      </c>
       <c r="I109" s="1">
         <v>2</v>
       </c>
-      <c r="J109" s="1">
-        <v>71505</v>
+      <c r="J109" s="3">
+        <v>28083236.039999999</v>
       </c>
       <c r="K109" s="1">
-        <v>8545</v>
+        <v>1951785</v>
       </c>
       <c r="L109" s="1">
-        <v>171</v>
+        <v>39036</v>
       </c>
       <c r="M109" s="1">
-        <v>62</v>
+        <v>101343</v>
       </c>
       <c r="N109" s="1">
-        <v>88</v>
+        <v>233393</v>
       </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B110" s="1">
-        <v>42.71</v>
+        <v>7.43</v>
       </c>
       <c r="C110" s="1">
-        <v>19.37</v>
+        <v>150.55000000000001</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E110" s="1">
-        <v>260336</v>
+        <v>154895</v>
       </c>
       <c r="F110" s="1">
-        <v>1.2</v>
+        <v>0.79</v>
       </c>
       <c r="G110" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H110" s="1">
-        <v>30</v>
+        <v>81</v>
       </c>
       <c r="I110" s="1">
         <v>2</v>
       </c>
       <c r="J110" s="1">
-        <v>312403</v>
+        <v>122367</v>
       </c>
       <c r="K110" s="1">
-        <v>37332</v>
+        <v>15847</v>
       </c>
       <c r="L110" s="1">
-        <v>747</v>
+        <v>317</v>
       </c>
       <c r="M110" s="1">
-        <v>4416</v>
+        <v>4794</v>
       </c>
       <c r="N110" s="1">
-        <v>7244</v>
+        <v>10699</v>
       </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B111" s="1">
-        <v>16.739999999999998</v>
+        <v>43.75</v>
       </c>
       <c r="C111" s="1">
-        <v>-62.19</v>
+        <v>7.41</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E111" s="1">
-        <v>5173</v>
+        <v>34050</v>
       </c>
       <c r="F111" s="1">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="G111" s="1">
         <v>12</v>
       </c>
       <c r="H111" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I111" s="1">
         <v>2</v>
       </c>
       <c r="J111" s="1">
-        <v>6208</v>
+        <v>71505</v>
       </c>
       <c r="K111" s="1">
-        <v>742</v>
+        <v>8545</v>
       </c>
       <c r="L111" s="1">
-        <v>15</v>
+        <v>171</v>
       </c>
       <c r="M111" s="1">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="N111" s="1">
-        <v>71</v>
+        <v>88</v>
       </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B112" s="1">
-        <v>31.79</v>
+        <v>42.71</v>
       </c>
       <c r="C112" s="1">
-        <v>-7.09</v>
+        <v>19.37</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E112" s="1">
-        <v>0</v>
+        <v>260336</v>
       </c>
       <c r="F112" s="1">
-        <v>1.46</v>
+        <v>1.2</v>
       </c>
       <c r="G112" s="1">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="H112" s="1">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="I112" s="1">
         <v>2</v>
       </c>
-      <c r="J112" s="3">
-        <v>25263009.259999998</v>
+      <c r="J112" s="1">
+        <v>312403</v>
       </c>
       <c r="K112" s="1">
-        <v>1250519</v>
+        <v>37332</v>
       </c>
       <c r="L112" s="1">
-        <v>25010</v>
+        <v>747</v>
       </c>
       <c r="M112" s="1">
-        <v>310126</v>
+        <v>4416</v>
       </c>
       <c r="N112" s="1">
-        <v>706583</v>
+        <v>7244</v>
       </c>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B113" s="1">
-        <v>-18.670000000000002</v>
+        <v>16.739999999999998</v>
       </c>
       <c r="C113" s="1">
-        <v>35.53</v>
+        <v>-62.19</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="E113" s="1">
-        <v>9566559</v>
+        <v>5173</v>
       </c>
       <c r="F113" s="1">
-        <v>0.14000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="G113" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H113" s="1">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="I113" s="1">
         <v>2</v>
       </c>
       <c r="J113" s="1">
-        <v>1339318</v>
+        <v>6208</v>
       </c>
       <c r="K113" s="1">
-        <v>146655</v>
+        <v>742</v>
       </c>
       <c r="L113" s="1">
-        <v>2933</v>
+        <v>15</v>
       </c>
       <c r="M113" s="1">
-        <v>45995</v>
+        <v>38</v>
       </c>
       <c r="N113" s="1">
-        <v>287067</v>
+        <v>71</v>
       </c>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B114" s="1">
-        <v>-22.96</v>
+        <v>31.79</v>
       </c>
       <c r="C114" s="1">
-        <v>18.489999999999998</v>
+        <v>-7.09</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E114" s="1">
-        <v>155084</v>
+        <v>0</v>
       </c>
       <c r="F114" s="1">
-        <v>1.2</v>
+        <v>1.46</v>
       </c>
       <c r="G114" s="1">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H114" s="1">
         <v>66</v>
@@ -6490,175 +6443,175 @@
       <c r="I114" s="1">
         <v>2</v>
       </c>
-      <c r="J114" s="1">
-        <v>186101</v>
+      <c r="J114" s="3">
+        <v>25263009.259999998</v>
       </c>
       <c r="K114" s="1">
-        <v>22239</v>
+        <v>1250519</v>
       </c>
       <c r="L114" s="1">
-        <v>445</v>
+        <v>25010</v>
       </c>
       <c r="M114" s="1">
-        <v>5480</v>
+        <v>310126</v>
       </c>
       <c r="N114" s="1">
-        <v>11340</v>
+        <v>706583</v>
       </c>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B115" s="1">
-        <v>-0.52</v>
+        <v>-18.670000000000002</v>
       </c>
       <c r="C115" s="1">
-        <v>166.93</v>
+        <v>35.53</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="E115" s="1">
-        <v>15289</v>
+        <v>9566559</v>
       </c>
       <c r="F115" s="1">
-        <v>1.2</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="G115" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H115" s="1">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="I115" s="1">
         <v>2</v>
       </c>
       <c r="J115" s="1">
-        <v>18347</v>
+        <v>1339318</v>
       </c>
       <c r="K115" s="1">
-        <v>2192</v>
+        <v>146655</v>
       </c>
       <c r="L115" s="1">
-        <v>44</v>
+        <v>2933</v>
       </c>
       <c r="M115" s="1">
-        <v>554</v>
+        <v>45995</v>
       </c>
       <c r="N115" s="1">
-        <v>1043</v>
+        <v>287067</v>
       </c>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B116" s="1">
-        <v>52.13</v>
+        <v>-22.96</v>
       </c>
       <c r="C116" s="1">
-        <v>5.29</v>
+        <v>18.489999999999998</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E116" s="1">
-        <v>8971770</v>
+        <v>155084</v>
       </c>
       <c r="F116" s="1">
-        <v>2.12</v>
+        <v>1.2</v>
       </c>
       <c r="G116" s="1">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="H116" s="1">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="I116" s="1">
         <v>2</v>
       </c>
-      <c r="J116" s="3">
-        <v>19020152.400000002</v>
+      <c r="J116" s="1">
+        <v>186101</v>
       </c>
       <c r="K116" s="1">
-        <v>3794520</v>
+        <v>22239</v>
       </c>
       <c r="L116" s="1">
-        <v>75890</v>
+        <v>445</v>
       </c>
       <c r="M116" s="1">
-        <v>27700</v>
+        <v>5480</v>
       </c>
       <c r="N116" s="1">
-        <v>32387</v>
+        <v>11340</v>
       </c>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B117" s="1">
-        <v>12.23</v>
+        <v>-0.52</v>
       </c>
       <c r="C117" s="1">
-        <v>-69.06</v>
+        <v>166.93</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E117" s="1">
-        <v>227165</v>
+        <v>15289</v>
       </c>
       <c r="F117" s="1">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="G117" s="1">
         <v>12</v>
       </c>
       <c r="H117" s="1">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I117" s="1">
         <v>2</v>
       </c>
       <c r="J117" s="1">
-        <v>477047</v>
+        <v>18347</v>
       </c>
       <c r="K117" s="1">
-        <v>57007</v>
+        <v>2192</v>
       </c>
       <c r="L117" s="1">
-        <v>1140</v>
+        <v>44</v>
       </c>
       <c r="M117" s="1">
-        <v>416</v>
+        <v>554</v>
       </c>
       <c r="N117" s="1">
-        <v>368</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B118" s="1">
-        <v>-20.9</v>
+        <v>52.13</v>
       </c>
       <c r="C118" s="1">
-        <v>165.62</v>
+        <v>5.29</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E118" s="1">
-        <v>257904</v>
+        <v>8971770</v>
       </c>
       <c r="F118" s="1">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="G118" s="1">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="H118" s="1">
         <v>0</v>
@@ -6666,43 +6619,43 @@
       <c r="I118" s="1">
         <v>2</v>
       </c>
-      <c r="J118" s="1">
-        <v>541598</v>
+      <c r="J118" s="3">
+        <v>19020152.400000002</v>
       </c>
       <c r="K118" s="1">
-        <v>64721</v>
+        <v>3794520</v>
       </c>
       <c r="L118" s="1">
-        <v>1294</v>
+        <v>75890</v>
       </c>
       <c r="M118" s="1">
-        <v>472</v>
+        <v>27700</v>
       </c>
       <c r="N118" s="1">
-        <v>702</v>
+        <v>32387</v>
       </c>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B119" s="1">
-        <v>-40.9</v>
+        <v>12.23</v>
       </c>
       <c r="C119" s="1">
-        <v>174.89</v>
+        <v>-69.06</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E119" s="1">
-        <v>3862054</v>
+        <v>227165</v>
       </c>
       <c r="F119" s="1">
-        <v>3.68</v>
+        <v>2.1</v>
       </c>
       <c r="G119" s="1">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H119" s="1">
         <v>0</v>
@@ -6710,169 +6663,169 @@
       <c r="I119" s="1">
         <v>2</v>
       </c>
-      <c r="J119" s="3">
-        <v>14212358.720000001</v>
+      <c r="J119" s="1">
+        <v>477047</v>
       </c>
       <c r="K119" s="1">
-        <v>1272006</v>
+        <v>57007</v>
       </c>
       <c r="L119" s="1">
-        <v>25440</v>
+        <v>1140</v>
       </c>
       <c r="M119" s="1">
-        <v>9286</v>
+        <v>416</v>
       </c>
       <c r="N119" s="1">
-        <v>11517</v>
+        <v>368</v>
       </c>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B120" s="1">
-        <v>12.87</v>
+        <v>-20.9</v>
       </c>
       <c r="C120" s="1">
-        <v>-85.21</v>
+        <v>165.62</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E120" s="1">
-        <v>3482653</v>
+        <v>257904</v>
       </c>
       <c r="F120" s="1">
-        <v>1.1000000000000001</v>
+        <v>2.1</v>
       </c>
       <c r="G120" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H120" s="1">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="I120" s="1">
         <v>2</v>
       </c>
       <c r="J120" s="1">
-        <v>3830918</v>
+        <v>541598</v>
       </c>
       <c r="K120" s="1">
-        <v>496104</v>
+        <v>64721</v>
       </c>
       <c r="L120" s="1">
-        <v>9922</v>
+        <v>1294</v>
       </c>
       <c r="M120" s="1">
-        <v>84415</v>
+        <v>472</v>
       </c>
       <c r="N120" s="1">
-        <v>169439</v>
+        <v>702</v>
       </c>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B121" s="1">
-        <v>9.08</v>
+        <v>-40.9</v>
       </c>
       <c r="C121" s="1">
-        <v>8.68</v>
+        <v>174.89</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E121" s="1">
+        <v>3862054</v>
+      </c>
+      <c r="F121" s="1">
+        <v>3.68</v>
+      </c>
+      <c r="G121" s="1">
+        <v>9</v>
+      </c>
+      <c r="H121" s="1">
         <v>0</v>
       </c>
-      <c r="F121" s="1">
-        <v>0.79</v>
-      </c>
-      <c r="G121" s="1">
-        <v>13</v>
-      </c>
-      <c r="H121" s="1">
-        <v>81</v>
-      </c>
       <c r="I121" s="1">
         <v>2</v>
       </c>
       <c r="J121" s="3">
-        <v>21706918.48</v>
+        <v>14212358.720000001</v>
       </c>
       <c r="K121" s="1">
-        <v>2811046</v>
+        <v>1272006</v>
       </c>
       <c r="L121" s="1">
-        <v>56221</v>
+        <v>25440</v>
       </c>
       <c r="M121" s="1">
-        <v>851493</v>
+        <v>9286</v>
       </c>
       <c r="N121" s="1">
-        <v>2481008</v>
+        <v>11517</v>
       </c>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B122" s="1">
-        <v>-19.05</v>
+        <v>12.87</v>
       </c>
       <c r="C122" s="1">
-        <v>-169.87</v>
+        <v>-85.21</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E122" s="1">
-        <v>1799</v>
+        <v>3482653</v>
       </c>
       <c r="F122" s="1">
-        <v>2.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G122" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H122" s="1">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="I122" s="1">
         <v>2</v>
       </c>
       <c r="J122" s="1">
-        <v>3778</v>
+        <v>3830918</v>
       </c>
       <c r="K122" s="1">
-        <v>451</v>
+        <v>496104</v>
       </c>
       <c r="L122" s="1">
-        <v>9</v>
+        <v>9922</v>
       </c>
       <c r="M122" s="1">
-        <v>4</v>
+        <v>84415</v>
       </c>
       <c r="N122" s="1">
-        <v>5</v>
+        <v>169439</v>
       </c>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B123" s="1">
-        <v>-29.04</v>
+        <v>9.08</v>
       </c>
       <c r="C123" s="1">
-        <v>167.95</v>
+        <v>8.68</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E123" s="1">
-        <v>2156</v>
+        <v>0</v>
       </c>
       <c r="F123" s="1">
         <v>0.79</v>
@@ -6881,42 +6834,42 @@
         <v>13</v>
       </c>
       <c r="H123" s="1">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I123" s="1">
         <v>2</v>
       </c>
-      <c r="J123" s="1">
-        <v>1703</v>
+      <c r="J123" s="3">
+        <v>21706918.48</v>
       </c>
       <c r="K123" s="1">
-        <v>221</v>
+        <v>2811046</v>
       </c>
       <c r="L123" s="1">
-        <v>4</v>
+        <v>56221</v>
       </c>
       <c r="M123" s="1">
-        <v>68</v>
+        <v>851493</v>
       </c>
       <c r="N123" s="1">
-        <v>156</v>
+        <v>2481008</v>
       </c>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B124" s="1">
-        <v>17.329999999999998</v>
+        <v>-19.05</v>
       </c>
       <c r="C124" s="1">
-        <v>145.38</v>
+        <v>-169.87</v>
       </c>
       <c r="D124" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E124" s="1">
-        <v>106256</v>
+        <v>1799</v>
       </c>
       <c r="F124" s="1">
         <v>2.1</v>
@@ -6931,567 +6884,567 @@
         <v>2</v>
       </c>
       <c r="J124" s="1">
-        <v>223138</v>
+        <v>3778</v>
       </c>
       <c r="K124" s="1">
-        <v>26665</v>
+        <v>451</v>
       </c>
       <c r="L124" s="1">
-        <v>533</v>
+        <v>9</v>
       </c>
       <c r="M124" s="1">
-        <v>219</v>
+        <v>4</v>
       </c>
       <c r="N124" s="1">
-        <v>309</v>
+        <v>5</v>
       </c>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B125" s="1">
-        <v>60.47</v>
+        <v>-29.04</v>
       </c>
       <c r="C125" s="1">
-        <v>8.4700000000000006</v>
+        <v>167.95</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E125" s="1">
-        <v>4131679</v>
+        <v>2156</v>
       </c>
       <c r="F125" s="1">
-        <v>2.8</v>
+        <v>0.79</v>
       </c>
       <c r="G125" s="1">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H125" s="1">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="I125" s="1">
         <v>2</v>
       </c>
-      <c r="J125" s="3">
-        <v>11568701.199999999</v>
+      <c r="J125" s="1">
+        <v>1703</v>
       </c>
       <c r="K125" s="1">
-        <v>1151086</v>
+        <v>221</v>
       </c>
       <c r="L125" s="1">
-        <v>23022</v>
+        <v>4</v>
       </c>
       <c r="M125" s="1">
-        <v>8403</v>
+        <v>68</v>
       </c>
       <c r="N125" s="1">
-        <v>9798</v>
+        <v>156</v>
       </c>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B126" s="1">
-        <v>21.51</v>
+        <v>17.329999999999998</v>
       </c>
       <c r="C126" s="1">
-        <v>55.92</v>
+        <v>145.38</v>
       </c>
       <c r="D126" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E126" s="1">
-        <v>2597556</v>
+        <v>106256</v>
       </c>
       <c r="F126" s="1">
-        <v>0.7</v>
+        <v>2.1</v>
       </c>
       <c r="G126" s="1">
         <v>12</v>
       </c>
       <c r="H126" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I126" s="1">
         <v>2</v>
       </c>
       <c r="J126" s="1">
-        <v>1818289</v>
+        <v>223138</v>
       </c>
       <c r="K126" s="1">
-        <v>217286</v>
+        <v>26665</v>
       </c>
       <c r="L126" s="1">
-        <v>4346</v>
+        <v>533</v>
       </c>
       <c r="M126" s="1">
-        <v>4658</v>
+        <v>219</v>
       </c>
       <c r="N126" s="1">
-        <v>11774</v>
+        <v>309</v>
       </c>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B127" s="1">
-        <v>30.38</v>
+        <v>60.47</v>
       </c>
       <c r="C127" s="1">
-        <v>69.349999999999994</v>
+        <v>8.4700000000000006</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E127" s="1">
+        <v>4131679</v>
+      </c>
+      <c r="F127" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="G127" s="1">
+        <v>10</v>
+      </c>
+      <c r="H127" s="1">
         <v>0</v>
       </c>
-      <c r="F127" s="1">
-        <v>0.79</v>
-      </c>
-      <c r="G127" s="1">
-        <v>13</v>
-      </c>
-      <c r="H127" s="1">
-        <v>86</v>
-      </c>
       <c r="I127" s="1">
         <v>2</v>
       </c>
       <c r="J127" s="3">
-        <v>11519742.08</v>
+        <v>11568701.199999999</v>
       </c>
       <c r="K127" s="1">
-        <v>1491807</v>
+        <v>1151086</v>
       </c>
       <c r="L127" s="1">
-        <v>29836</v>
+        <v>23022</v>
       </c>
       <c r="M127" s="1">
-        <v>480493</v>
+        <v>8403</v>
       </c>
       <c r="N127" s="1">
-        <v>1221460</v>
+        <v>9798</v>
       </c>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B128" s="1">
-        <v>7.51</v>
+        <v>21.51</v>
       </c>
       <c r="C128" s="1">
-        <v>134.58000000000001</v>
+        <v>55.92</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E128" s="1">
-        <v>23446</v>
+        <v>2597556</v>
       </c>
       <c r="F128" s="1">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="G128" s="1">
         <v>12</v>
       </c>
       <c r="H128" s="1">
-        <v>56</v>
+        <v>4</v>
       </c>
       <c r="I128" s="1">
         <v>2</v>
       </c>
       <c r="J128" s="1">
-        <v>28135</v>
+        <v>1818289</v>
       </c>
       <c r="K128" s="1">
-        <v>3362</v>
+        <v>217286</v>
       </c>
       <c r="L128" s="1">
-        <v>67</v>
+        <v>4346</v>
       </c>
       <c r="M128" s="1">
-        <v>716</v>
+        <v>4658</v>
       </c>
       <c r="N128" s="1">
-        <v>1350</v>
+        <v>11774</v>
       </c>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B129" s="1">
-        <v>31.95</v>
+        <v>30.38</v>
       </c>
       <c r="C129" s="1">
-        <v>35.229999999999997</v>
+        <v>69.349999999999994</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E129" s="1">
-        <v>3045258</v>
+        <v>0</v>
       </c>
       <c r="F129" s="1">
         <v>0.79</v>
       </c>
       <c r="G129" s="1">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="H129" s="1">
-        <v>6</v>
+        <v>86</v>
       </c>
       <c r="I129" s="1">
         <v>2</v>
       </c>
-      <c r="J129" s="1">
-        <v>2405754</v>
+      <c r="J129" s="3">
+        <v>11519742.08</v>
       </c>
       <c r="K129" s="1">
-        <v>191257</v>
+        <v>1491807</v>
       </c>
       <c r="L129" s="1">
-        <v>3825</v>
+        <v>29836</v>
       </c>
       <c r="M129" s="1">
-        <v>5599</v>
+        <v>480493</v>
       </c>
       <c r="N129" s="1">
-        <v>18676</v>
+        <v>1221460</v>
       </c>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B130" s="1">
-        <v>8.5399999999999991</v>
+        <v>7.51</v>
       </c>
       <c r="C130" s="1">
-        <v>-80.78</v>
+        <v>134.58000000000001</v>
       </c>
       <c r="D130" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E130" s="1">
-        <v>3249531</v>
+        <v>23446</v>
       </c>
       <c r="F130" s="1">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="G130" s="1">
         <v>12</v>
       </c>
       <c r="H130" s="1">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="I130" s="1">
         <v>2</v>
       </c>
       <c r="J130" s="1">
-        <v>3931933</v>
+        <v>28135</v>
       </c>
       <c r="K130" s="1">
-        <v>469866</v>
+        <v>3362</v>
       </c>
       <c r="L130" s="1">
-        <v>9397</v>
+        <v>67</v>
       </c>
       <c r="M130" s="1">
-        <v>34388</v>
+        <v>716</v>
       </c>
       <c r="N130" s="1">
-        <v>70759</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B131" s="1">
-        <v>-6.31</v>
+        <v>31.95</v>
       </c>
       <c r="C131" s="1">
-        <v>143.96</v>
+        <v>35.229999999999997</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E131" s="1">
-        <v>2747514</v>
+        <v>3045258</v>
       </c>
       <c r="F131" s="1">
         <v>0.79</v>
       </c>
       <c r="G131" s="1">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="H131" s="1">
-        <v>86</v>
+        <v>6</v>
       </c>
       <c r="I131" s="1">
         <v>2</v>
       </c>
       <c r="J131" s="1">
-        <v>2170536</v>
+        <v>2405754</v>
       </c>
       <c r="K131" s="1">
-        <v>281084</v>
+        <v>191257</v>
       </c>
       <c r="L131" s="1">
-        <v>5622</v>
+        <v>3825</v>
       </c>
       <c r="M131" s="1">
-        <v>89835</v>
+        <v>5599</v>
       </c>
       <c r="N131" s="1">
-        <v>242328</v>
+        <v>18676</v>
       </c>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B132" s="1">
-        <v>-9.19</v>
+        <v>8.5399999999999991</v>
       </c>
       <c r="C132" s="1">
-        <v>-75.02</v>
+        <v>-80.78</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E132" s="1">
-        <v>0</v>
+        <v>3249531</v>
       </c>
       <c r="F132" s="1">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="G132" s="1">
         <v>12</v>
       </c>
       <c r="H132" s="1">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I132" s="1">
         <v>2</v>
       </c>
-      <c r="J132" s="3">
-        <v>16518729.6</v>
+      <c r="J132" s="1">
+        <v>3931933</v>
       </c>
       <c r="K132" s="1">
-        <v>1973988</v>
+        <v>469866</v>
       </c>
       <c r="L132" s="1">
-        <v>39480</v>
+        <v>9397</v>
       </c>
       <c r="M132" s="1">
-        <v>194453</v>
+        <v>34388</v>
       </c>
       <c r="N132" s="1">
-        <v>377111</v>
+        <v>70759</v>
       </c>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B133" s="1">
-        <v>12.88</v>
+        <v>-6.31</v>
       </c>
       <c r="C133" s="1">
-        <v>121.77</v>
+        <v>143.96</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E133" s="1">
-        <v>0</v>
+        <v>2747514</v>
       </c>
       <c r="F133" s="1">
-        <v>0.5</v>
+        <v>0.79</v>
       </c>
       <c r="G133" s="1">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H133" s="1">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="I133" s="1">
         <v>2</v>
       </c>
-      <c r="J133" s="3">
-        <v>41723431</v>
+      <c r="J133" s="1">
+        <v>2170536</v>
       </c>
       <c r="K133" s="1">
-        <v>6237653</v>
+        <v>281084</v>
       </c>
       <c r="L133" s="1">
-        <v>124753</v>
+        <v>5622</v>
       </c>
       <c r="M133" s="1">
-        <v>1883659</v>
+        <v>89835</v>
       </c>
       <c r="N133" s="1">
-        <v>5088394</v>
+        <v>242328</v>
       </c>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B134" s="1">
-        <v>51.92</v>
+        <v>-9.19</v>
       </c>
       <c r="C134" s="1">
-        <v>19.149999999999999</v>
+        <v>-75.02</v>
       </c>
       <c r="D134" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E134" s="1">
-        <v>3272933</v>
+        <v>0</v>
       </c>
       <c r="F134" s="1">
-        <v>0.88</v>
+        <v>1.2</v>
       </c>
       <c r="G134" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H134" s="1">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I134" s="1">
         <v>2</v>
       </c>
-      <c r="J134" s="1">
-        <v>2880181</v>
+      <c r="J134" s="3">
+        <v>16518729.6</v>
       </c>
       <c r="K134" s="1">
-        <v>315380</v>
+        <v>1973988</v>
       </c>
       <c r="L134" s="1">
-        <v>6308</v>
+        <v>39480</v>
       </c>
       <c r="M134" s="1">
-        <v>15703</v>
+        <v>194453</v>
       </c>
       <c r="N134" s="1">
-        <v>26855</v>
+        <v>377111</v>
       </c>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B135" s="1">
-        <v>39.4</v>
+        <v>12.88</v>
       </c>
       <c r="C135" s="1">
-        <v>-8.2200000000000006</v>
+        <v>121.77</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E135" s="1">
-        <v>8507951</v>
+        <v>0</v>
       </c>
       <c r="F135" s="1">
-        <v>2.21</v>
+        <v>0.5</v>
       </c>
       <c r="G135" s="1">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H135" s="1">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="I135" s="1">
         <v>2</v>
       </c>
       <c r="J135" s="3">
-        <v>2880181.04</v>
+        <v>41723431</v>
       </c>
       <c r="K135" s="1">
-        <v>2246907</v>
+        <v>6237653</v>
       </c>
       <c r="L135" s="1">
-        <v>44938</v>
+        <v>124753</v>
       </c>
       <c r="M135" s="1">
-        <v>16402</v>
+        <v>1883659</v>
       </c>
       <c r="N135" s="1">
-        <v>19382</v>
+        <v>5088394</v>
       </c>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B136" s="1">
-        <v>18.22</v>
+        <v>51.92</v>
       </c>
       <c r="C136" s="1">
-        <v>-66.59</v>
+        <v>19.149999999999999</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E136" s="1">
-        <v>4249848</v>
+        <v>3272933</v>
       </c>
       <c r="F136" s="1">
-        <v>2.1</v>
+        <v>0.88</v>
       </c>
       <c r="G136" s="1">
+        <v>11</v>
+      </c>
+      <c r="H136" s="1">
         <v>12</v>
       </c>
-      <c r="H136" s="1">
-        <v>2</v>
-      </c>
       <c r="I136" s="1">
         <v>2</v>
       </c>
       <c r="J136" s="1">
-        <v>8924681</v>
+        <v>2880181</v>
       </c>
       <c r="K136" s="1">
-        <v>1066499</v>
+        <v>315380</v>
       </c>
       <c r="L136" s="1">
-        <v>21330</v>
+        <v>6308</v>
       </c>
       <c r="M136" s="1">
-        <v>16517</v>
+        <v>15703</v>
       </c>
       <c r="N136" s="1">
-        <v>20481</v>
+        <v>26855</v>
       </c>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B137" s="1">
-        <v>25.35</v>
+        <v>39.4</v>
       </c>
       <c r="C137" s="1">
-        <v>51.18</v>
+        <v>-8.2200000000000006</v>
       </c>
       <c r="D137" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E137" s="1">
-        <v>653007</v>
+        <v>8507951</v>
       </c>
       <c r="F137" s="1">
-        <v>1.33</v>
+        <v>2.21</v>
       </c>
       <c r="G137" s="1">
         <v>12</v>
@@ -7502,521 +7455,521 @@
       <c r="I137" s="1">
         <v>2</v>
       </c>
-      <c r="J137" s="1">
-        <v>868499</v>
+      <c r="J137" s="3">
+        <v>2880181.04</v>
       </c>
       <c r="K137" s="1">
-        <v>103786</v>
+        <v>2246907</v>
       </c>
       <c r="L137" s="1">
-        <v>2076</v>
+        <v>44938</v>
       </c>
       <c r="M137" s="1">
-        <v>758</v>
+        <v>16402</v>
       </c>
       <c r="N137" s="1">
-        <v>1560</v>
+        <v>19382</v>
       </c>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B138" s="1">
-        <v>-21.12</v>
+        <v>18.22</v>
       </c>
       <c r="C138" s="1">
-        <v>55.54</v>
+        <v>-66.59</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E138" s="1">
-        <v>809426</v>
+        <v>4249848</v>
       </c>
       <c r="F138" s="1">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="G138" s="1">
         <v>12</v>
       </c>
       <c r="H138" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" s="1">
         <v>2</v>
       </c>
       <c r="J138" s="1">
-        <v>971311</v>
+        <v>8924681</v>
       </c>
       <c r="K138" s="1">
-        <v>116072</v>
+        <v>1066499</v>
       </c>
       <c r="L138" s="1">
-        <v>2321</v>
+        <v>21330</v>
       </c>
       <c r="M138" s="1">
-        <v>847</v>
+        <v>16517</v>
       </c>
       <c r="N138" s="1">
-        <v>1615</v>
+        <v>20481</v>
       </c>
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B139" s="1">
-        <v>45.94</v>
+        <v>25.35</v>
       </c>
       <c r="C139" s="1">
-        <v>24.97</v>
+        <v>51.18</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E139" s="1">
-        <v>875170</v>
+        <v>653007</v>
       </c>
       <c r="F139" s="1">
-        <v>1.04</v>
+        <v>1.33</v>
       </c>
       <c r="G139" s="1">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H139" s="1">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="I139" s="1">
         <v>2</v>
       </c>
       <c r="J139" s="1">
-        <v>910177</v>
+        <v>868499</v>
       </c>
       <c r="K139" s="1">
-        <v>35952</v>
+        <v>103786</v>
       </c>
       <c r="L139" s="1">
-        <v>719</v>
+        <v>2076</v>
       </c>
       <c r="M139" s="1">
-        <v>3610</v>
+        <v>758</v>
       </c>
       <c r="N139" s="1">
-        <v>8261</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B140" s="1">
-        <v>61.52</v>
+        <v>-21.12</v>
       </c>
       <c r="C140" s="1">
-        <v>105.32</v>
+        <v>55.54</v>
       </c>
       <c r="D140" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E140" s="1">
-        <v>0</v>
+        <v>809426</v>
       </c>
       <c r="F140" s="1">
-        <v>0.93</v>
+        <v>1.2</v>
       </c>
       <c r="G140" s="1">
         <v>12</v>
       </c>
       <c r="H140" s="1">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="I140" s="1">
         <v>2</v>
       </c>
-      <c r="J140" s="3">
-        <v>10055659.41</v>
+      <c r="J140" s="1">
+        <v>971311</v>
       </c>
       <c r="K140" s="1">
-        <v>1201651</v>
+        <v>116072</v>
       </c>
       <c r="L140" s="1">
-        <v>24033</v>
+        <v>2321</v>
       </c>
       <c r="M140" s="1">
-        <v>80759</v>
+        <v>847</v>
       </c>
       <c r="N140" s="1">
-        <v>128946</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B141" s="1">
-        <v>-24.14</v>
+        <v>45.94</v>
       </c>
       <c r="C141" s="1">
-        <v>-10.029999999999999</v>
+        <v>24.97</v>
       </c>
       <c r="D141" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E141" s="1">
-        <v>6839</v>
+        <v>875170</v>
       </c>
       <c r="F141" s="1">
-        <v>1.2</v>
+        <v>1.04</v>
       </c>
       <c r="G141" s="1">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="H141" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I141" s="1">
         <v>2</v>
       </c>
       <c r="J141" s="1">
-        <v>8207</v>
+        <v>910177</v>
       </c>
       <c r="K141" s="1">
-        <v>981</v>
+        <v>35952</v>
       </c>
       <c r="L141" s="1">
-        <v>20</v>
+        <v>719</v>
       </c>
       <c r="M141" s="1">
-        <v>96</v>
+        <v>3610</v>
       </c>
       <c r="N141" s="1">
-        <v>182</v>
+        <v>8261</v>
       </c>
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B142" s="1">
-        <v>17.36</v>
+        <v>61.52</v>
       </c>
       <c r="C142" s="1">
-        <v>-62.78</v>
+        <v>105.32</v>
       </c>
       <c r="D142" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E142" s="1">
-        <v>36102</v>
+        <v>0</v>
       </c>
       <c r="F142" s="1">
-        <v>5.45</v>
+        <v>0.93</v>
       </c>
       <c r="G142" s="1">
         <v>12</v>
       </c>
       <c r="H142" s="1">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="I142" s="1">
         <v>2</v>
       </c>
-      <c r="J142" s="1">
-        <v>196756</v>
+      <c r="J142" s="3">
+        <v>10055659.41</v>
       </c>
       <c r="K142" s="1">
-        <v>23512</v>
+        <v>1201651</v>
       </c>
       <c r="L142" s="1">
-        <v>470</v>
+        <v>24033</v>
       </c>
       <c r="M142" s="1">
-        <v>715</v>
+        <v>80759</v>
       </c>
       <c r="N142" s="1">
-        <v>742</v>
+        <v>128946</v>
       </c>
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B143" s="1">
-        <v>13.91</v>
+        <v>-24.14</v>
       </c>
       <c r="C143" s="1">
-        <v>-60.98</v>
+        <v>-10.029999999999999</v>
       </c>
       <c r="D143" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E143" s="1">
-        <v>163227</v>
+        <v>6839</v>
       </c>
       <c r="F143" s="1">
-        <v>4.3499999999999996</v>
+        <v>1.2</v>
       </c>
       <c r="G143" s="1">
         <v>12</v>
       </c>
       <c r="H143" s="1">
+        <v>25</v>
+      </c>
+      <c r="I143" s="1">
+        <v>2</v>
+      </c>
+      <c r="J143" s="1">
+        <v>8207</v>
+      </c>
+      <c r="K143" s="1">
+        <v>981</v>
+      </c>
+      <c r="L143" s="1">
         <v>20</v>
       </c>
-      <c r="I143" s="1">
-        <v>2</v>
-      </c>
-      <c r="J143" s="1">
-        <v>710037</v>
-      </c>
-      <c r="K143" s="1">
-        <v>84849</v>
-      </c>
-      <c r="L143" s="1">
-        <v>1697</v>
-      </c>
       <c r="M143" s="1">
-        <v>6709</v>
+        <v>96</v>
       </c>
       <c r="N143" s="1">
-        <v>8610</v>
+        <v>182</v>
       </c>
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B144" s="1">
-        <v>46.94</v>
+        <v>17.36</v>
       </c>
       <c r="C144" s="1">
-        <v>-56.27</v>
+        <v>-62.78</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E144" s="1">
-        <v>5888</v>
+        <v>36102</v>
       </c>
       <c r="F144" s="1">
-        <v>2.1</v>
+        <v>5.45</v>
       </c>
       <c r="G144" s="1">
         <v>12</v>
       </c>
       <c r="H144" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I144" s="1">
         <v>2</v>
       </c>
       <c r="J144" s="1">
-        <v>12365</v>
+        <v>196756</v>
       </c>
       <c r="K144" s="1">
-        <v>1478</v>
+        <v>23512</v>
       </c>
       <c r="L144" s="1">
-        <v>30</v>
+        <v>470</v>
       </c>
       <c r="M144" s="1">
-        <v>11</v>
+        <v>715</v>
       </c>
       <c r="N144" s="1">
-        <v>15</v>
+        <v>742</v>
       </c>
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B145" s="1">
-        <v>12.98</v>
+        <v>13.91</v>
       </c>
       <c r="C145" s="1">
-        <v>-61.29</v>
+        <v>-60.98</v>
       </c>
       <c r="D145" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E145" s="1">
-        <v>120149</v>
+        <v>163227</v>
       </c>
       <c r="F145" s="1">
-        <v>1.7</v>
+        <v>4.3499999999999996</v>
       </c>
       <c r="G145" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H145" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I145" s="1">
         <v>2</v>
       </c>
       <c r="J145" s="1">
-        <v>204253</v>
+        <v>710037</v>
       </c>
       <c r="K145" s="1">
-        <v>26451</v>
+        <v>84849</v>
       </c>
       <c r="L145" s="1">
-        <v>529</v>
+        <v>1697</v>
       </c>
       <c r="M145" s="1">
-        <v>2245</v>
+        <v>6709</v>
       </c>
       <c r="N145" s="1">
-        <v>2996</v>
+        <v>8610</v>
       </c>
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B146" s="1">
-        <v>-13.76</v>
+        <v>46.94</v>
       </c>
       <c r="C146" s="1">
-        <v>-172.11</v>
+        <v>-56.27</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E146" s="1">
-        <v>168025</v>
+        <v>5888</v>
       </c>
       <c r="F146" s="1">
-        <v>0.79</v>
+        <v>2.1</v>
       </c>
       <c r="G146" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H146" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="I146" s="1">
         <v>2</v>
       </c>
       <c r="J146" s="1">
-        <v>132740</v>
+        <v>12365</v>
       </c>
       <c r="K146" s="1">
-        <v>17190</v>
+        <v>1478</v>
       </c>
       <c r="L146" s="1">
-        <v>344</v>
+        <v>30</v>
       </c>
       <c r="M146" s="1">
-        <v>5122</v>
+        <v>11</v>
       </c>
       <c r="N146" s="1">
-        <v>10989</v>
+        <v>15</v>
       </c>
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B147" s="1">
-        <v>0.19</v>
+        <v>12.98</v>
       </c>
       <c r="C147" s="1">
-        <v>6.61</v>
+        <v>-61.29</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E147" s="1">
-        <v>163740</v>
+        <v>120149</v>
       </c>
       <c r="F147" s="1">
-        <v>0.79</v>
+        <v>1.7</v>
       </c>
       <c r="G147" s="1">
         <v>13</v>
       </c>
       <c r="H147" s="1">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="I147" s="1">
         <v>2</v>
       </c>
       <c r="J147" s="1">
-        <v>129355</v>
+        <v>204253</v>
       </c>
       <c r="K147" s="1">
-        <v>16751</v>
+        <v>26451</v>
       </c>
       <c r="L147" s="1">
-        <v>335</v>
+        <v>529</v>
       </c>
       <c r="M147" s="1">
-        <v>5081</v>
+        <v>2245</v>
       </c>
       <c r="N147" s="1">
-        <v>13309</v>
+        <v>2996</v>
       </c>
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B148" s="1">
-        <v>23.89</v>
+        <v>-13.76</v>
       </c>
       <c r="C148" s="1">
-        <v>45.08</v>
+        <v>-172.11</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E148" s="1">
-        <v>3593471</v>
+        <v>168025</v>
       </c>
       <c r="F148" s="1">
-        <v>1.3</v>
+        <v>0.79</v>
       </c>
       <c r="G148" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H148" s="1">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="I148" s="1">
         <v>2</v>
       </c>
       <c r="J148" s="1">
-        <v>4671512</v>
+        <v>132740</v>
       </c>
       <c r="K148" s="1">
-        <v>558246</v>
+        <v>17190</v>
       </c>
       <c r="L148" s="1">
-        <v>11165</v>
+        <v>344</v>
       </c>
       <c r="M148" s="1">
-        <v>20552</v>
+        <v>5122</v>
       </c>
       <c r="N148" s="1">
-        <v>43855</v>
+        <v>10989</v>
       </c>
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B149" s="1">
-        <v>14.5</v>
+        <v>0.19</v>
       </c>
       <c r="C149" s="1">
-        <v>-14.45</v>
+        <v>6.61</v>
       </c>
       <c r="D149" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E149" s="1">
-        <v>8125063</v>
+        <v>163740</v>
       </c>
       <c r="F149" s="1">
         <v>0.79</v>
@@ -8025,526 +7978,526 @@
         <v>13</v>
       </c>
       <c r="H149" s="1">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I149" s="1">
         <v>2</v>
       </c>
       <c r="J149" s="1">
-        <v>6418800</v>
+        <v>129355</v>
       </c>
       <c r="K149" s="1">
-        <v>831235</v>
+        <v>16751</v>
       </c>
       <c r="L149" s="1">
-        <v>16625</v>
+        <v>335</v>
       </c>
       <c r="M149" s="1">
-        <v>254770</v>
+        <v>5081</v>
       </c>
       <c r="N149" s="1">
-        <v>738264</v>
+        <v>13309</v>
       </c>
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B150" s="1">
-        <v>-4.68</v>
+        <v>23.89</v>
       </c>
       <c r="C150" s="1">
-        <v>55.49</v>
+        <v>45.08</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E150" s="1">
-        <v>91361</v>
+        <v>3593471</v>
       </c>
       <c r="F150" s="1">
-        <v>2.98</v>
+        <v>1.3</v>
       </c>
       <c r="G150" s="1">
         <v>12</v>
       </c>
       <c r="H150" s="1">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="I150" s="1">
         <v>2</v>
       </c>
       <c r="J150" s="1">
-        <v>272256</v>
+        <v>4671512</v>
       </c>
       <c r="K150" s="1">
-        <v>32535</v>
+        <v>558246</v>
       </c>
       <c r="L150" s="1">
-        <v>651</v>
+        <v>11165</v>
       </c>
       <c r="M150" s="1">
-        <v>4619</v>
+        <v>20552</v>
       </c>
       <c r="N150" s="1">
-        <v>5478</v>
+        <v>43855</v>
       </c>
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B151" s="1">
-        <v>8.4600000000000009</v>
+        <v>14.5</v>
       </c>
       <c r="C151" s="1">
-        <v>-11.78</v>
+        <v>-14.45</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E151" s="1">
-        <v>2887017</v>
+        <v>8125063</v>
       </c>
       <c r="F151" s="1">
-        <v>0.45</v>
+        <v>0.79</v>
       </c>
       <c r="G151" s="1">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H151" s="1">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I151" s="1">
         <v>2</v>
       </c>
       <c r="J151" s="1">
-        <v>1299158</v>
+        <v>6418800</v>
       </c>
       <c r="K151" s="1">
-        <v>116275</v>
+        <v>831235</v>
       </c>
       <c r="L151" s="1">
-        <v>2325</v>
+        <v>16625</v>
       </c>
       <c r="M151" s="1">
-        <v>36408</v>
+        <v>254770</v>
       </c>
       <c r="N151" s="1">
-        <v>121312</v>
+        <v>738264</v>
       </c>
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B152" s="1">
-        <v>1.35</v>
+        <v>-4.68</v>
       </c>
       <c r="C152" s="1">
-        <v>103.82</v>
+        <v>55.49</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E152" s="1">
-        <v>4492494</v>
+        <v>91361</v>
       </c>
       <c r="F152" s="1">
-        <v>1.49</v>
+        <v>2.98</v>
       </c>
       <c r="G152" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H152" s="1">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="I152" s="1">
         <v>2</v>
       </c>
       <c r="J152" s="1">
-        <v>6693816</v>
+        <v>272256</v>
       </c>
       <c r="K152" s="1">
-        <v>866849</v>
+        <v>32535</v>
       </c>
       <c r="L152" s="1">
-        <v>17337</v>
+        <v>651</v>
       </c>
       <c r="M152" s="1">
-        <v>6472</v>
+        <v>4619</v>
       </c>
       <c r="N152" s="1">
-        <v>10878</v>
+        <v>5478</v>
       </c>
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B153" s="1">
-        <v>46.15</v>
+        <v>8.4600000000000009</v>
       </c>
       <c r="C153" s="1">
-        <v>15</v>
+        <v>-11.78</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E153" s="1">
-        <v>336594</v>
+        <v>2887017</v>
       </c>
       <c r="F153" s="1">
-        <v>1.21</v>
+        <v>0.45</v>
       </c>
       <c r="G153" s="1">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H153" s="1">
-        <v>1</v>
+        <v>84</v>
       </c>
       <c r="I153" s="1">
         <v>2</v>
       </c>
       <c r="J153" s="1">
-        <v>407279</v>
+        <v>1299158</v>
       </c>
       <c r="K153" s="1">
-        <v>48670</v>
+        <v>116275</v>
       </c>
       <c r="L153" s="1">
-        <v>973</v>
+        <v>2325</v>
       </c>
       <c r="M153" s="1">
-        <v>556</v>
+        <v>36408</v>
       </c>
       <c r="N153" s="1">
-        <v>985</v>
+        <v>121312</v>
       </c>
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B154" s="1">
-        <v>-9.65</v>
+        <v>1.35</v>
       </c>
       <c r="C154" s="1">
-        <v>160.16</v>
+        <v>103.82</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E154" s="1">
-        <v>618678</v>
+        <v>4492494</v>
       </c>
       <c r="F154" s="1">
-        <v>0.79</v>
+        <v>1.49</v>
       </c>
       <c r="G154" s="1">
         <v>13</v>
       </c>
       <c r="H154" s="1">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="I154" s="1">
         <v>2</v>
       </c>
       <c r="J154" s="1">
-        <v>488756</v>
+        <v>6693816</v>
       </c>
       <c r="K154" s="1">
-        <v>63294</v>
+        <v>866849</v>
       </c>
       <c r="L154" s="1">
-        <v>1266</v>
+        <v>17337</v>
       </c>
       <c r="M154" s="1">
-        <v>20394</v>
+        <v>6472</v>
       </c>
       <c r="N154" s="1">
-        <v>176589</v>
+        <v>10878</v>
       </c>
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B155" s="1">
-        <v>5.15</v>
+        <v>46.15</v>
       </c>
       <c r="C155" s="1">
-        <v>46.2</v>
+        <v>15</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E155" s="1">
-        <v>5971169</v>
+        <v>336594</v>
       </c>
       <c r="F155" s="1">
-        <v>0.6</v>
+        <v>1.21</v>
       </c>
       <c r="G155" s="1">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H155" s="1">
-        <v>85</v>
+        <v>1</v>
       </c>
       <c r="I155" s="1">
         <v>2</v>
       </c>
       <c r="J155" s="1">
-        <v>3582701</v>
+        <v>407279</v>
       </c>
       <c r="K155" s="1">
-        <v>320652</v>
+        <v>48670</v>
       </c>
       <c r="L155" s="1">
-        <v>6413</v>
+        <v>973</v>
       </c>
       <c r="M155" s="1">
-        <v>101531</v>
+        <v>556</v>
       </c>
       <c r="N155" s="1">
-        <v>289601</v>
+        <v>985</v>
       </c>
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B156" s="1">
-        <v>-30.56</v>
+        <v>-9.65</v>
       </c>
       <c r="C156" s="1">
-        <v>22.94</v>
+        <v>160.16</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E156" s="1">
-        <v>0</v>
+        <v>618678</v>
       </c>
       <c r="F156" s="1">
-        <v>2</v>
+        <v>0.79</v>
       </c>
       <c r="G156" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H156" s="1">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="I156" s="1">
         <v>2</v>
       </c>
-      <c r="J156" s="3">
-        <v>25798402</v>
+      <c r="J156" s="1">
+        <v>488756</v>
       </c>
       <c r="K156" s="1">
-        <v>3082909</v>
+        <v>63294</v>
       </c>
       <c r="L156" s="1">
-        <v>61658</v>
+        <v>1266</v>
       </c>
       <c r="M156" s="1">
-        <v>630005</v>
+        <v>20394</v>
       </c>
       <c r="N156" s="1">
-        <v>836279</v>
+        <v>176589</v>
       </c>
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B157" s="1">
-        <v>40.46</v>
+        <v>5.15</v>
       </c>
       <c r="C157" s="1">
-        <v>-3.75</v>
+        <v>46.2</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E157" s="1">
-        <v>0</v>
+        <v>5971169</v>
       </c>
       <c r="F157" s="1">
-        <v>2.13</v>
+        <v>0.6</v>
       </c>
       <c r="G157" s="1">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H157" s="1">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="I157" s="1">
         <v>2</v>
       </c>
-      <c r="J157" s="3">
-        <v>48503269.439999998</v>
+      <c r="J157" s="1">
+        <v>3582701</v>
       </c>
       <c r="K157" s="1">
-        <v>6281173</v>
+        <v>320652</v>
       </c>
       <c r="L157" s="1">
-        <v>125623</v>
+        <v>6413</v>
       </c>
       <c r="M157" s="1">
-        <v>45853</v>
+        <v>101531</v>
       </c>
       <c r="N157" s="1">
-        <v>58932</v>
+        <v>289601</v>
       </c>
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B158" s="1">
-        <v>7.87</v>
+        <v>-30.56</v>
       </c>
       <c r="C158" s="1">
-        <v>80.77</v>
+        <v>22.94</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E158" s="1">
         <v>0</v>
       </c>
       <c r="F158" s="1">
-        <v>5.0999999999999996</v>
+        <v>2</v>
       </c>
       <c r="G158" s="1">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H158" s="1">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="I158" s="1">
         <v>2</v>
       </c>
       <c r="J158" s="3">
-        <v>74297687.399999991</v>
+        <v>25798402</v>
       </c>
       <c r="K158" s="1">
-        <v>5163689</v>
+        <v>3082909</v>
       </c>
       <c r="L158" s="1">
-        <v>103274</v>
+        <v>61658</v>
       </c>
       <c r="M158" s="1">
-        <v>1591179</v>
+        <v>630005</v>
       </c>
       <c r="N158" s="1">
-        <v>1918670</v>
+        <v>836279</v>
       </c>
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B159" s="1">
-        <v>12.86</v>
+        <v>40.46</v>
       </c>
       <c r="C159" s="1">
-        <v>30.22</v>
+        <v>-3.75</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E159" s="1">
-        <v>752529</v>
+        <v>0</v>
       </c>
       <c r="F159" s="1">
-        <v>0.79</v>
+        <v>2.13</v>
       </c>
       <c r="G159" s="1">
         <v>13</v>
       </c>
       <c r="H159" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="I159" s="1">
         <v>2</v>
       </c>
-      <c r="J159" s="1">
-        <v>594498</v>
+      <c r="J159" s="3">
+        <v>48503269.439999998</v>
       </c>
       <c r="K159" s="1">
-        <v>76987</v>
+        <v>6281173</v>
       </c>
       <c r="L159" s="1">
-        <v>1540</v>
+        <v>125623</v>
       </c>
       <c r="M159" s="1">
-        <v>22928</v>
+        <v>45853</v>
       </c>
       <c r="N159" s="1">
-        <v>52061</v>
+        <v>58932</v>
       </c>
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B160" s="1">
-        <v>3.92</v>
+        <v>7.87</v>
       </c>
       <c r="C160" s="1">
-        <v>-56.03</v>
+        <v>80.77</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E160" s="1">
-        <v>402263</v>
+        <v>0</v>
       </c>
       <c r="F160" s="1">
-        <v>1.36</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="G160" s="1">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H160" s="1">
-        <v>15</v>
+        <v>82</v>
       </c>
       <c r="I160" s="1">
         <v>2</v>
       </c>
-      <c r="J160" s="1">
-        <v>547078</v>
+      <c r="J160" s="3">
+        <v>74297687.399999991</v>
       </c>
       <c r="K160" s="1">
-        <v>65376</v>
+        <v>5163689</v>
       </c>
       <c r="L160" s="1">
-        <v>1308</v>
+        <v>103274</v>
       </c>
       <c r="M160" s="1">
-        <v>3942</v>
+        <v>1591179</v>
       </c>
       <c r="N160" s="1">
-        <v>6394</v>
+        <v>1918670</v>
       </c>
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B161" s="1">
-        <v>77.55</v>
+        <v>12.86</v>
       </c>
       <c r="C161" s="1">
-        <v>23.67</v>
+        <v>30.22</v>
       </c>
       <c r="D161" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E161" s="1">
-        <v>2226</v>
+        <v>752529</v>
       </c>
       <c r="F161" s="1">
         <v>0.79</v>
@@ -8553,136 +8506,136 @@
         <v>13</v>
       </c>
       <c r="H161" s="1">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="I161" s="1">
         <v>2</v>
       </c>
       <c r="J161" s="1">
-        <v>1759</v>
+        <v>594498</v>
       </c>
       <c r="K161" s="1">
-        <v>228</v>
+        <v>76987</v>
       </c>
       <c r="L161" s="1">
-        <v>5</v>
+        <v>1540</v>
       </c>
       <c r="M161" s="1">
-        <v>2</v>
+        <v>22928</v>
       </c>
       <c r="N161" s="1">
-        <v>4</v>
+        <v>52061</v>
       </c>
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B162" s="1">
-        <v>60.13</v>
+        <v>3.92</v>
       </c>
       <c r="C162" s="1">
-        <v>18.64</v>
+        <v>-56.03</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E162" s="1">
-        <v>6202234</v>
+        <v>402263</v>
       </c>
       <c r="F162" s="1">
-        <v>1.61</v>
+        <v>1.36</v>
       </c>
       <c r="G162" s="1">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="H162" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I162" s="1">
         <v>2</v>
       </c>
       <c r="J162" s="1">
-        <v>9985597</v>
+        <v>547078</v>
       </c>
       <c r="K162" s="1">
-        <v>294575</v>
+        <v>65376</v>
       </c>
       <c r="L162" s="1">
-        <v>5892</v>
+        <v>1308</v>
       </c>
       <c r="M162" s="1">
-        <v>2150</v>
+        <v>3942</v>
       </c>
       <c r="N162" s="1">
-        <v>5245</v>
+        <v>6394</v>
       </c>
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B163" s="1">
-        <v>34.799999999999997</v>
+        <v>77.55</v>
       </c>
       <c r="C163" s="1">
-        <v>39</v>
+        <v>23.67</v>
       </c>
       <c r="D163" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E163" s="1">
-        <v>3621997</v>
+        <v>2226</v>
       </c>
       <c r="F163" s="1">
-        <v>1.37</v>
+        <v>0.79</v>
       </c>
       <c r="G163" s="1">
         <v>13</v>
       </c>
       <c r="H163" s="1">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="I163" s="1">
         <v>2</v>
       </c>
       <c r="J163" s="1">
-        <v>4962136</v>
+        <v>1759</v>
       </c>
       <c r="K163" s="1">
-        <v>642597</v>
+        <v>228</v>
       </c>
       <c r="L163" s="1">
-        <v>12852</v>
+        <v>5</v>
       </c>
       <c r="M163" s="1">
-        <v>157904</v>
+        <v>2</v>
       </c>
       <c r="N163" s="1">
-        <v>304960</v>
+        <v>4</v>
       </c>
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B164" s="1">
-        <v>23.7</v>
+        <v>60.13</v>
       </c>
       <c r="C164" s="1">
-        <v>120.96</v>
+        <v>18.64</v>
       </c>
       <c r="D164" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E164" s="1">
-        <v>0</v>
+        <v>6202234</v>
       </c>
       <c r="F164" s="1">
-        <v>2.1</v>
+        <v>1.61</v>
       </c>
       <c r="G164" s="1">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="H164" s="1">
         <v>0</v>
@@ -8690,131 +8643,131 @@
       <c r="I164" s="1">
         <v>2</v>
       </c>
-      <c r="J164" s="3">
-        <v>46644290.700000003</v>
+      <c r="J164" s="1">
+        <v>9985597</v>
       </c>
       <c r="K164" s="1">
-        <v>5573993</v>
+        <v>294575</v>
       </c>
       <c r="L164" s="1">
-        <v>111480</v>
+        <v>5892</v>
       </c>
       <c r="M164" s="1">
-        <v>45718</v>
+        <v>2150</v>
       </c>
       <c r="N164" s="1">
-        <v>64631</v>
+        <v>5245</v>
       </c>
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B165" s="1">
-        <v>-6.37</v>
+        <v>34.799999999999997</v>
       </c>
       <c r="C165" s="1">
-        <v>34.89</v>
+        <v>39</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E165" s="1">
-        <v>6688695</v>
+        <v>3621997</v>
       </c>
       <c r="F165" s="1">
-        <v>0.26</v>
+        <v>1.37</v>
       </c>
       <c r="G165" s="1">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H165" s="1">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="I165" s="1">
         <v>2</v>
       </c>
       <c r="J165" s="1">
-        <v>1739061</v>
+        <v>4962136</v>
       </c>
       <c r="K165" s="1">
-        <v>155646</v>
+        <v>642597</v>
       </c>
       <c r="L165" s="1">
-        <v>3113</v>
+        <v>12852</v>
       </c>
       <c r="M165" s="1">
-        <v>48586</v>
+        <v>157904</v>
       </c>
       <c r="N165" s="1">
-        <v>214196</v>
+        <v>304960</v>
       </c>
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="B166" s="1">
-        <v>15.87</v>
+        <v>23.7</v>
       </c>
       <c r="C166" s="1">
-        <v>100.99</v>
+        <v>120.96</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E166" s="1">
         <v>0</v>
       </c>
       <c r="F166" s="1">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="G166" s="1">
         <v>12</v>
       </c>
       <c r="H166" s="1">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="I166" s="1">
         <v>2</v>
       </c>
       <c r="J166" s="3">
-        <v>31252130.399999999</v>
+        <v>46644290.700000003</v>
       </c>
       <c r="K166" s="1">
-        <v>3734630</v>
+        <v>5573993</v>
       </c>
       <c r="L166" s="1">
-        <v>74693</v>
+        <v>111480</v>
       </c>
       <c r="M166" s="1">
-        <v>1027739</v>
+        <v>45718</v>
       </c>
       <c r="N166" s="1">
-        <v>2179508</v>
+        <v>64631</v>
       </c>
     </row>
     <row r="167" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B167" s="1">
-        <v>8.6199999999999992</v>
+        <v>-6.37</v>
       </c>
       <c r="C167" s="1">
-        <v>0.82</v>
+        <v>34.89</v>
       </c>
       <c r="D167" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E167" s="1">
-        <v>1991642</v>
+        <v>6688695</v>
       </c>
       <c r="F167" s="1">
-        <v>0.52</v>
+        <v>0.26</v>
       </c>
       <c r="G167" s="1">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H167" s="1">
         <v>84</v>
@@ -8823,482 +8776,482 @@
         <v>2</v>
       </c>
       <c r="J167" s="1">
-        <v>1035654</v>
+        <v>1739061</v>
       </c>
       <c r="K167" s="1">
-        <v>113404</v>
+        <v>155646</v>
       </c>
       <c r="L167" s="1">
-        <v>2268</v>
+        <v>3113</v>
       </c>
       <c r="M167" s="1">
-        <v>35401</v>
+        <v>48586</v>
       </c>
       <c r="N167" s="1">
-        <v>96994</v>
+        <v>214196</v>
       </c>
     </row>
     <row r="168" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="B168" s="1">
-        <v>-8.9700000000000006</v>
+        <v>15.87</v>
       </c>
       <c r="C168" s="1">
-        <v>-171.86</v>
+        <v>100.99</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E168" s="1">
-        <v>1379</v>
+        <v>0</v>
       </c>
       <c r="F168" s="1">
-        <v>0.79</v>
+        <v>1.2</v>
       </c>
       <c r="G168" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H168" s="1">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="I168" s="1">
         <v>2</v>
       </c>
-      <c r="J168" s="1">
-        <v>1089</v>
+      <c r="J168" s="3">
+        <v>31252130.399999999</v>
       </c>
       <c r="K168" s="1">
-        <v>141</v>
+        <v>3734630</v>
       </c>
       <c r="L168" s="1">
-        <v>3</v>
+        <v>74693</v>
       </c>
       <c r="M168" s="1">
-        <v>43</v>
+        <v>1027739</v>
       </c>
       <c r="N168" s="1">
-        <v>100</v>
+        <v>2179508</v>
       </c>
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B169" s="1">
-        <v>-21.18</v>
+        <v>8.6199999999999992</v>
       </c>
       <c r="C169" s="1">
-        <v>-175.2</v>
+        <v>0.82</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E169" s="1">
-        <v>102872</v>
+        <v>1991642</v>
       </c>
       <c r="F169" s="1">
-        <v>3.71</v>
+        <v>0.52</v>
       </c>
       <c r="G169" s="1">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="H169" s="1">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="I169" s="1">
         <v>2</v>
       </c>
       <c r="J169" s="1">
-        <v>381655</v>
+        <v>1035654</v>
       </c>
       <c r="K169" s="1">
-        <v>22708</v>
+        <v>113404</v>
       </c>
       <c r="L169" s="1">
-        <v>454</v>
+        <v>2268</v>
       </c>
       <c r="M169" s="1">
-        <v>6624</v>
+        <v>35401</v>
       </c>
       <c r="N169" s="1">
-        <v>10272</v>
+        <v>96994</v>
       </c>
     </row>
     <row r="170" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B170" s="1">
-        <v>10.69</v>
+        <v>-8.9700000000000006</v>
       </c>
       <c r="C170" s="1">
-        <v>-61.22</v>
+        <v>-171.86</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E170" s="1">
-        <v>1358433</v>
+        <v>1379</v>
       </c>
       <c r="F170" s="1">
-        <v>14.4</v>
+        <v>0.79</v>
       </c>
       <c r="G170" s="1">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="H170" s="1">
+        <v>82</v>
+      </c>
+      <c r="I170" s="1">
+        <v>2</v>
+      </c>
+      <c r="J170" s="1">
+        <v>1089</v>
+      </c>
+      <c r="K170" s="1">
+        <v>141</v>
+      </c>
+      <c r="L170" s="1">
         <v>3</v>
       </c>
-      <c r="I170" s="1">
-        <v>2</v>
-      </c>
-      <c r="J170" s="3">
-        <v>19561435.199999999</v>
-      </c>
-      <c r="K170" s="1">
-        <v>4880578</v>
-      </c>
-      <c r="L170" s="1">
-        <v>97612</v>
-      </c>
       <c r="M170" s="1">
-        <v>94066</v>
+        <v>43</v>
       </c>
       <c r="N170" s="1">
-        <v>73512</v>
+        <v>100</v>
       </c>
     </row>
     <row r="171" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="B171" s="1">
-        <v>33.89</v>
+        <v>-21.18</v>
       </c>
       <c r="C171" s="1">
-        <v>9.5399999999999991</v>
+        <v>-175.2</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E171" s="1">
-        <v>7274973</v>
+        <v>102872</v>
       </c>
       <c r="F171" s="1">
-        <v>1.2</v>
+        <v>3.71</v>
       </c>
       <c r="G171" s="1">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H171" s="1">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="I171" s="1">
         <v>2</v>
       </c>
       <c r="J171" s="1">
-        <v>8729968</v>
+        <v>381655</v>
       </c>
       <c r="K171" s="1">
-        <v>1043231</v>
+        <v>22708</v>
       </c>
       <c r="L171" s="1">
-        <v>20865</v>
+        <v>454</v>
       </c>
       <c r="M171" s="1">
-        <v>234309</v>
+        <v>6624</v>
       </c>
       <c r="N171" s="1">
-        <v>440701</v>
+        <v>10272</v>
       </c>
     </row>
     <row r="172" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B172" s="1">
-        <v>38.96</v>
+        <v>10.69</v>
       </c>
       <c r="C172" s="1">
-        <v>35.24</v>
+        <v>-61.22</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E172" s="1">
-        <v>0</v>
+        <v>1358433</v>
       </c>
       <c r="F172" s="1">
-        <v>1.77</v>
+        <v>14.4</v>
       </c>
       <c r="G172" s="1">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="H172" s="1">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="I172" s="1">
         <v>2</v>
       </c>
       <c r="J172" s="3">
-        <v>60255865.740000002</v>
+        <v>19561435.199999999</v>
       </c>
       <c r="K172" s="1">
-        <v>7200576</v>
+        <v>4880578</v>
       </c>
       <c r="L172" s="1">
-        <v>144012</v>
+        <v>97612</v>
       </c>
       <c r="M172" s="1">
-        <v>485937</v>
+        <v>94066</v>
       </c>
       <c r="N172" s="1">
-        <v>790235</v>
+        <v>73512</v>
       </c>
     </row>
     <row r="173" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="B173" s="1">
-        <v>21.69</v>
+        <v>33.89</v>
       </c>
       <c r="C173" s="1">
-        <v>-71.8</v>
+        <v>9.5399999999999991</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E173" s="1">
-        <v>22570</v>
+        <v>7274973</v>
       </c>
       <c r="F173" s="1">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="G173" s="1">
         <v>12</v>
       </c>
       <c r="H173" s="1">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I173" s="1">
         <v>2</v>
       </c>
       <c r="J173" s="1">
-        <v>47397</v>
+        <v>8729968</v>
       </c>
       <c r="K173" s="1">
-        <v>5664</v>
+        <v>1043231</v>
       </c>
       <c r="L173" s="1">
-        <v>113</v>
+        <v>20865</v>
       </c>
       <c r="M173" s="1">
-        <v>49</v>
+        <v>234309</v>
       </c>
       <c r="N173" s="1">
-        <v>70</v>
+        <v>440701</v>
       </c>
     </row>
     <row r="174" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B174" s="1">
-        <v>-7.11</v>
+        <v>38.96</v>
       </c>
       <c r="C174" s="1">
-        <v>177.65</v>
+        <v>35.24</v>
       </c>
       <c r="D174" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E174" s="1">
-        <v>11563</v>
+        <v>0</v>
       </c>
       <c r="F174" s="1">
-        <v>1.2</v>
+        <v>1.77</v>
       </c>
       <c r="G174" s="1">
         <v>12</v>
       </c>
       <c r="H174" s="1">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="I174" s="1">
         <v>2</v>
       </c>
-      <c r="J174" s="1">
-        <v>13876</v>
+      <c r="J174" s="3">
+        <v>60255865.740000002</v>
       </c>
       <c r="K174" s="1">
-        <v>1658</v>
+        <v>7200576</v>
       </c>
       <c r="L174" s="1">
-        <v>33</v>
+        <v>144012</v>
       </c>
       <c r="M174" s="1">
-        <v>457</v>
+        <v>485937</v>
       </c>
       <c r="N174" s="1">
-        <v>861</v>
+        <v>790235</v>
       </c>
     </row>
     <row r="175" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B175" s="1">
-        <v>48.38</v>
+        <v>21.69</v>
       </c>
       <c r="C175" s="1">
-        <v>31.17</v>
+        <v>-71.8</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E175" s="1">
-        <v>6812799</v>
+        <v>22570</v>
       </c>
       <c r="F175" s="1">
-        <v>0.79</v>
+        <v>2.1</v>
       </c>
       <c r="G175" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H175" s="1">
+        <v>0</v>
+      </c>
+      <c r="I175" s="1">
+        <v>2</v>
+      </c>
+      <c r="J175" s="1">
+        <v>47397</v>
+      </c>
+      <c r="K175" s="1">
+        <v>5664</v>
+      </c>
+      <c r="L175" s="1">
+        <v>113</v>
+      </c>
+      <c r="M175" s="1">
         <v>49</v>
       </c>
-      <c r="I175" s="1">
-        <v>2</v>
-      </c>
-      <c r="J175" s="1">
-        <v>5382111</v>
-      </c>
-      <c r="K175" s="1">
-        <v>696983</v>
-      </c>
-      <c r="L175" s="1">
-        <v>13940</v>
-      </c>
-      <c r="M175" s="1">
-        <v>128765</v>
-      </c>
       <c r="N175" s="1">
-        <v>233388</v>
+        <v>70</v>
       </c>
     </row>
     <row r="176" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B176" s="1">
-        <v>23.42</v>
+        <v>-7.11</v>
       </c>
       <c r="C176" s="1">
-        <v>53.85</v>
+        <v>177.65</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E176" s="1">
-        <v>2018302</v>
+        <v>11563</v>
       </c>
       <c r="F176" s="1">
-        <v>1.66</v>
+        <v>1.2</v>
       </c>
       <c r="G176" s="1">
         <v>12</v>
       </c>
       <c r="H176" s="1">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="I176" s="1">
         <v>2</v>
       </c>
       <c r="J176" s="1">
-        <v>3350381</v>
+        <v>13876</v>
       </c>
       <c r="K176" s="1">
-        <v>400371</v>
+        <v>1658</v>
       </c>
       <c r="L176" s="1">
-        <v>8007</v>
+        <v>33</v>
       </c>
       <c r="M176" s="1">
-        <v>3016</v>
+        <v>457</v>
       </c>
       <c r="N176" s="1">
-        <v>5910</v>
+        <v>861</v>
       </c>
     </row>
     <row r="177" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B177" s="1">
-        <v>55.38</v>
+        <v>48.38</v>
       </c>
       <c r="C177" s="1">
-        <v>-3.44</v>
+        <v>31.17</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E177" s="1">
-        <v>0</v>
+        <v>6812799</v>
       </c>
       <c r="F177" s="1">
-        <v>1.79</v>
+        <v>0.79</v>
       </c>
       <c r="G177" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H177" s="1">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="I177" s="1">
         <v>2</v>
       </c>
-      <c r="J177" s="3">
-        <v>77433411.310000002</v>
+      <c r="J177" s="1">
+        <v>5382111</v>
       </c>
       <c r="K177" s="1">
-        <v>9253293</v>
+        <v>696983</v>
       </c>
       <c r="L177" s="1">
-        <v>185066</v>
+        <v>13940</v>
       </c>
       <c r="M177" s="1">
-        <v>67549</v>
+        <v>128765</v>
       </c>
       <c r="N177" s="1">
-        <v>94165</v>
+        <v>233388</v>
       </c>
     </row>
     <row r="178" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B178" s="1">
-        <v>37.090000000000003</v>
+        <v>23.42</v>
       </c>
       <c r="C178" s="1">
-        <v>-95.71</v>
+        <v>53.85</v>
       </c>
       <c r="D178" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E178" s="1">
-        <v>0</v>
+        <v>2018302</v>
       </c>
       <c r="F178" s="1">
-        <v>2.58</v>
+        <v>1.66</v>
       </c>
       <c r="G178" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H178" s="1">
         <v>0</v>
@@ -9306,125 +9259,125 @@
       <c r="I178" s="1">
         <v>2</v>
       </c>
-      <c r="J178" s="3">
-        <v>291346587.72000003</v>
-      </c>
-      <c r="K178" s="3">
-        <v>37729383.109739996</v>
+      <c r="J178" s="1">
+        <v>3350381</v>
+      </c>
+      <c r="K178" s="1">
+        <v>400371</v>
       </c>
       <c r="L178" s="1">
-        <v>754588</v>
+        <v>8007</v>
       </c>
       <c r="M178" s="1">
-        <v>275424</v>
+        <v>3016</v>
       </c>
       <c r="N178" s="1">
-        <v>336819</v>
+        <v>5910</v>
       </c>
     </row>
     <row r="179" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B179" s="1">
-        <v>-32.520000000000003</v>
+        <v>55.38</v>
       </c>
       <c r="C179" s="1">
-        <v>-55.77</v>
+        <v>-3.44</v>
       </c>
       <c r="D179" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E179" s="1">
-        <v>2433597</v>
+        <v>0</v>
       </c>
       <c r="F179" s="1">
-        <v>2.1</v>
+        <v>1.79</v>
       </c>
       <c r="G179" s="1">
         <v>12</v>
       </c>
       <c r="H179" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I179" s="1">
         <v>2</v>
       </c>
-      <c r="J179" s="1">
-        <v>5110554</v>
+      <c r="J179" s="3">
+        <v>77433411.310000002</v>
       </c>
       <c r="K179" s="1">
-        <v>610711</v>
+        <v>9253293</v>
       </c>
       <c r="L179" s="1">
-        <v>12214</v>
+        <v>185066</v>
       </c>
       <c r="M179" s="1">
-        <v>21562</v>
+        <v>67549</v>
       </c>
       <c r="N179" s="1">
-        <v>8037</v>
+        <v>94165</v>
       </c>
     </row>
     <row r="180" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B180" s="1">
-        <v>-15.38</v>
+        <v>37.090000000000003</v>
       </c>
       <c r="C180" s="1">
-        <v>166.96</v>
+        <v>-95.71</v>
       </c>
       <c r="D180" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E180" s="1">
+        <v>0</v>
+      </c>
+      <c r="F180" s="1">
+        <v>2.58</v>
+      </c>
+      <c r="G180" s="1">
         <v>13</v>
       </c>
-      <c r="E180" s="1">
-        <v>251851</v>
-      </c>
-      <c r="F180" s="1">
-        <v>3.28</v>
-      </c>
-      <c r="G180" s="1">
-        <v>9</v>
-      </c>
       <c r="H180" s="1">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="I180" s="1">
         <v>2</v>
       </c>
-      <c r="J180" s="1">
-        <v>826071</v>
-      </c>
-      <c r="K180" s="1">
-        <v>73933</v>
+      <c r="J180" s="3">
+        <v>291346587.72000003</v>
+      </c>
+      <c r="K180" s="3">
+        <v>37729383.109739996</v>
       </c>
       <c r="L180" s="1">
-        <v>1479</v>
+        <v>754588</v>
       </c>
       <c r="M180" s="1">
-        <v>22478</v>
+        <v>275424</v>
       </c>
       <c r="N180" s="1">
-        <v>38006</v>
+        <v>336819</v>
       </c>
     </row>
     <row r="181" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B181" s="1">
-        <v>6.42</v>
+        <v>-32.520000000000003</v>
       </c>
       <c r="C181" s="1">
-        <v>-66.59</v>
+        <v>-55.77</v>
       </c>
       <c r="D181" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E181" s="1">
-        <v>0</v>
+        <v>2433597</v>
       </c>
       <c r="F181" s="1">
         <v>2.1</v>
@@ -9433,132 +9386,220 @@
         <v>12</v>
       </c>
       <c r="H181" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I181" s="1">
         <v>2</v>
       </c>
-      <c r="J181" s="3">
-        <v>33799283.700000003</v>
+      <c r="J181" s="1">
+        <v>5110554</v>
       </c>
       <c r="K181" s="1">
-        <v>4039014</v>
+        <v>610711</v>
       </c>
       <c r="L181" s="1">
-        <v>80780</v>
+        <v>12214</v>
       </c>
       <c r="M181" s="1">
-        <v>102333</v>
+        <v>21562</v>
       </c>
       <c r="N181" s="1">
-        <v>154243</v>
+        <v>8037</v>
       </c>
     </row>
     <row r="182" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B182" s="1">
-        <v>14.06</v>
+        <v>-15.38</v>
       </c>
       <c r="C182" s="1">
-        <v>108.28</v>
+        <v>166.96</v>
       </c>
       <c r="D182" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E182" s="1">
-        <v>0</v>
+        <v>251851</v>
       </c>
       <c r="F182" s="1">
-        <v>0.79</v>
+        <v>3.28</v>
       </c>
       <c r="G182" s="1">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H182" s="1">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="I182" s="1">
         <v>2</v>
       </c>
-      <c r="J182" s="3">
-        <v>44128013.550000004</v>
+      <c r="J182" s="1">
+        <v>826071</v>
       </c>
       <c r="K182" s="1">
-        <v>5714578</v>
+        <v>73933</v>
       </c>
       <c r="L182" s="1">
-        <v>114292</v>
+        <v>1479</v>
       </c>
       <c r="M182" s="1">
-        <v>1833819</v>
+        <v>22478</v>
       </c>
       <c r="N182" s="1">
-        <v>4172828</v>
+        <v>38006</v>
       </c>
     </row>
     <row r="183" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B183" s="1">
+        <v>6.42</v>
+      </c>
+      <c r="C183" s="1">
+        <v>-66.59</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E183" s="1">
+        <v>0</v>
+      </c>
+      <c r="F183" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="G183" s="1">
+        <v>12</v>
+      </c>
+      <c r="H183" s="1">
+        <v>5</v>
+      </c>
+      <c r="I183" s="1">
+        <v>2</v>
+      </c>
+      <c r="J183" s="3">
+        <v>33799283.700000003</v>
+      </c>
+      <c r="K183" s="1">
+        <v>4039014</v>
+      </c>
+      <c r="L183" s="1">
+        <v>80780</v>
+      </c>
+      <c r="M183" s="1">
+        <v>102333</v>
+      </c>
+      <c r="N183" s="1">
+        <v>154243</v>
+      </c>
+    </row>
+    <row r="184" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A184" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B184" s="1">
+        <v>14.06</v>
+      </c>
+      <c r="C184" s="1">
+        <v>108.28</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E184" s="1">
+        <v>0</v>
+      </c>
+      <c r="F184" s="1">
+        <v>0.79</v>
+      </c>
+      <c r="G184" s="1">
+        <v>13</v>
+      </c>
+      <c r="H184" s="1">
+        <v>86</v>
+      </c>
+      <c r="I184" s="1">
+        <v>2</v>
+      </c>
+      <c r="J184" s="3">
+        <v>44128013.550000004</v>
+      </c>
+      <c r="K184" s="1">
+        <v>5714578</v>
+      </c>
+      <c r="L184" s="1">
+        <v>114292</v>
+      </c>
+      <c r="M184" s="1">
+        <v>1833819</v>
+      </c>
+      <c r="N184" s="1">
+        <v>4172828</v>
+      </c>
+    </row>
+    <row r="185" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A185" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="B183" s="1">
+      <c r="B185" s="1">
         <v>15.55</v>
       </c>
-      <c r="C183" s="1">
+      <c r="C185" s="1">
         <v>48.52</v>
       </c>
-      <c r="D183" s="1" t="s">
+      <c r="D185" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E183" s="1">
+      <c r="E185" s="1">
         <v>6048920</v>
       </c>
-      <c r="F183" s="1">
+      <c r="F185" s="1">
         <v>0.79</v>
       </c>
-      <c r="G183" s="1">
+      <c r="G185" s="1">
         <v>13</v>
       </c>
-      <c r="H183" s="1">
+      <c r="H185" s="1">
         <v>73</v>
       </c>
-      <c r="I183" s="1">
-        <v>2</v>
-      </c>
-      <c r="J183" s="1">
+      <c r="I185" s="1">
+        <v>2</v>
+      </c>
+      <c r="J185" s="1">
         <v>4778647</v>
       </c>
-      <c r="K183" s="1">
+      <c r="K185" s="1">
         <v>618835</v>
       </c>
-      <c r="L183" s="1">
+      <c r="L185" s="1">
         <v>12377</v>
       </c>
-      <c r="M183" s="1">
+      <c r="M185" s="1">
         <v>169181</v>
       </c>
-      <c r="N183" s="1">
+      <c r="N185" s="1">
         <v>513907</v>
       </c>
     </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A184" s="1"/>
-      <c r="B184" s="1"/>
-      <c r="C184" s="1"/>
-      <c r="D184" s="1"/>
-      <c r="E184" s="1"/>
-      <c r="F184" s="1"/>
-      <c r="G184" s="1"/>
-      <c r="H184" s="1"/>
-      <c r="I184" s="1"/>
-      <c r="J184" s="1"/>
-      <c r="K184" s="1"/>
-      <c r="L184" s="1"/>
-      <c r="M184" s="1">
+    <row r="186" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A186" s="1"/>
+      <c r="B186" s="1"/>
+      <c r="C186" s="1"/>
+      <c r="D186" s="1"/>
+      <c r="E186" s="1"/>
+      <c r="F186" s="1"/>
+      <c r="G186" s="1"/>
+      <c r="H186" s="1"/>
+      <c r="I186" s="1"/>
+      <c r="J186" s="1"/>
+      <c r="K186" s="1"/>
+      <c r="L186" s="1"/>
+      <c r="M186" s="1">
         <v>0</v>
       </c>
-      <c r="N184" s="1">
+      <c r="N186" s="1">
         <v>0</v>
       </c>
     </row>
